--- a/sbs/user_oriented_en/chainyo_7b_alpaca_lora_gusev_7b_en_alpaca_lora.xlsx
+++ b/sbs/user_oriented_en/chainyo_7b_alpaca_lora_gusev_7b_en_alpaca_lora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/user_oriented_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B505B782-14F7-BB41-80C0-45B01A86131E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C5453-8B8F-494D-8447-36A71F08D628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3469,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4377,6 +4377,9 @@
       <c r="D53" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
@@ -4391,6 +4394,9 @@
       <c r="D54" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
@@ -4405,6 +4411,9 @@
       <c r="D55" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
@@ -4419,6 +4428,9 @@
       <c r="D56" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -4433,6 +4445,9 @@
       <c r="D57" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
@@ -4447,6 +4462,9 @@
       <c r="D58" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
@@ -4461,6 +4479,9 @@
       <c r="D59" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="E59" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -4475,6 +4496,9 @@
       <c r="D60" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
@@ -4489,6 +4513,9 @@
       <c r="D61" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -4503,6 +4530,9 @@
       <c r="D62" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
@@ -4517,6 +4547,9 @@
       <c r="D63" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
@@ -4531,8 +4564,11 @@
       <c r="D64" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>256</v>
       </c>
@@ -4545,8 +4581,11 @@
       <c r="D65" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>260</v>
       </c>
@@ -4559,8 +4598,11 @@
       <c r="D66" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>264</v>
       </c>
@@ -4573,8 +4615,11 @@
       <c r="D67" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>268</v>
       </c>
@@ -4587,8 +4632,11 @@
       <c r="D68" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>272</v>
       </c>
@@ -4601,8 +4649,11 @@
       <c r="D69" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>276</v>
       </c>
@@ -4615,8 +4666,11 @@
       <c r="D70" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>280</v>
       </c>
@@ -4629,8 +4683,11 @@
       <c r="D71" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>284</v>
       </c>
@@ -4643,8 +4700,11 @@
       <c r="D72" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>287</v>
       </c>
@@ -4657,8 +4717,11 @@
       <c r="D73" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>291</v>
       </c>
@@ -4671,8 +4734,11 @@
       <c r="D74" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>295</v>
       </c>
@@ -4685,8 +4751,11 @@
       <c r="D75" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>299</v>
       </c>
@@ -4699,8 +4768,11 @@
       <c r="D76" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>303</v>
       </c>
@@ -4713,8 +4785,11 @@
       <c r="D77" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>307</v>
       </c>
@@ -4727,8 +4802,11 @@
       <c r="D78" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>311</v>
       </c>
@@ -4741,8 +4819,11 @@
       <c r="D79" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>315</v>
       </c>
@@ -4755,8 +4836,11 @@
       <c r="D80" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>319</v>
       </c>
@@ -4769,8 +4853,11 @@
       <c r="D81" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>323</v>
       </c>
@@ -4783,8 +4870,11 @@
       <c r="D82" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>327</v>
       </c>
@@ -4797,8 +4887,11 @@
       <c r="D83" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>331</v>
       </c>
@@ -4811,8 +4904,11 @@
       <c r="D84" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>335</v>
       </c>
@@ -4825,8 +4921,11 @@
       <c r="D85" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>339</v>
       </c>
@@ -4839,8 +4938,11 @@
       <c r="D86" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>343</v>
       </c>
@@ -4853,8 +4955,11 @@
       <c r="D87" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>347</v>
       </c>
@@ -4867,8 +4972,11 @@
       <c r="D88" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>351</v>
       </c>
@@ -4881,8 +4989,11 @@
       <c r="D89" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>355</v>
       </c>
@@ -4895,8 +5006,11 @@
       <c r="D90" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>359</v>
       </c>
@@ -4909,8 +5023,11 @@
       <c r="D91" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>363</v>
       </c>
@@ -4923,8 +5040,11 @@
       <c r="D92" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>367</v>
       </c>
@@ -4937,8 +5057,11 @@
       <c r="D93" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>371</v>
       </c>
@@ -4951,8 +5074,11 @@
       <c r="D94" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>375</v>
       </c>
@@ -4965,8 +5091,11 @@
       <c r="D95" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>379</v>
       </c>
@@ -4979,8 +5108,11 @@
       <c r="D96" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>383</v>
       </c>
@@ -4993,8 +5125,11 @@
       <c r="D97" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>387</v>
       </c>
@@ -5007,8 +5142,11 @@
       <c r="D98" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>391</v>
       </c>
@@ -5021,8 +5159,11 @@
       <c r="D99" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>395</v>
       </c>
@@ -5035,8 +5176,11 @@
       <c r="D100" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>399</v>
       </c>
@@ -5049,8 +5193,11 @@
       <c r="D101" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>403</v>
       </c>
@@ -5064,7 +5211,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>407</v>
       </c>
@@ -5078,7 +5225,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>411</v>
       </c>
@@ -5092,7 +5239,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>415</v>
       </c>
@@ -5106,7 +5253,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>419</v>
       </c>
@@ -5120,7 +5267,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>423</v>
       </c>
@@ -5134,7 +5281,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>427</v>
       </c>
@@ -5148,7 +5295,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>431</v>
       </c>
@@ -5162,7 +5309,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>435</v>
       </c>
@@ -5176,7 +5323,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>439</v>
       </c>
@@ -5190,7 +5337,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>443</v>
       </c>

--- a/sbs/user_oriented_en/chainyo_7b_alpaca_lora_gusev_7b_en_alpaca_lora.xlsx
+++ b/sbs/user_oriented_en/chainyo_7b_alpaca_lora_gusev_7b_en_alpaca_lora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/user_oriented_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C5453-8B8F-494D-8447-36A71F08D628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE840EA2-BB0E-AD4B-BBA0-716B63414895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3469,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5210,6 +5210,9 @@
       <c r="D102" s="2" t="s">
         <v>406</v>
       </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
@@ -5224,6 +5227,9 @@
       <c r="D103" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
@@ -5238,6 +5244,9 @@
       <c r="D104" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
@@ -5252,6 +5261,9 @@
       <c r="D105" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
@@ -5266,6 +5278,9 @@
       <c r="D106" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
@@ -5280,6 +5295,9 @@
       <c r="D107" s="2" t="s">
         <v>426</v>
       </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
@@ -5294,6 +5312,9 @@
       <c r="D108" s="2" t="s">
         <v>430</v>
       </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
@@ -5308,6 +5329,9 @@
       <c r="D109" s="2" t="s">
         <v>434</v>
       </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
@@ -5322,6 +5346,9 @@
       <c r="D110" s="2" t="s">
         <v>438</v>
       </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
@@ -5336,6 +5363,9 @@
       <c r="D111" s="2" t="s">
         <v>442</v>
       </c>
+      <c r="E111" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
@@ -5350,8 +5380,11 @@
       <c r="D112" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>447</v>
       </c>
@@ -5364,8 +5397,11 @@
       <c r="D113" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>451</v>
       </c>
@@ -5378,8 +5414,11 @@
       <c r="D114" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>455</v>
       </c>
@@ -5392,8 +5431,11 @@
       <c r="D115" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>459</v>
       </c>
@@ -5406,8 +5448,11 @@
       <c r="D116" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>463</v>
       </c>
@@ -5420,8 +5465,11 @@
       <c r="D117" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>467</v>
       </c>
@@ -5434,8 +5482,11 @@
       <c r="D118" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>471</v>
       </c>
@@ -5448,8 +5499,11 @@
       <c r="D119" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>475</v>
       </c>
@@ -5462,8 +5516,11 @@
       <c r="D120" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>479</v>
       </c>
@@ -5476,8 +5533,11 @@
       <c r="D121" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>483</v>
       </c>
@@ -5490,8 +5550,11 @@
       <c r="D122" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>487</v>
       </c>
@@ -5504,8 +5567,11 @@
       <c r="D123" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>491</v>
       </c>
@@ -5518,8 +5584,11 @@
       <c r="D124" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>495</v>
       </c>
@@ -5532,8 +5601,11 @@
       <c r="D125" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>499</v>
       </c>
@@ -5546,8 +5618,11 @@
       <c r="D126" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="E126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>503</v>
       </c>
@@ -5560,8 +5635,11 @@
       <c r="D127" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>507</v>
       </c>
@@ -5574,8 +5652,11 @@
       <c r="D128" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>511</v>
       </c>
@@ -5588,8 +5669,11 @@
       <c r="D129" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>515</v>
       </c>
@@ -5602,8 +5686,11 @@
       <c r="D130" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>519</v>
       </c>
@@ -5616,8 +5703,11 @@
       <c r="D131" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>523</v>
       </c>
@@ -5630,8 +5720,11 @@
       <c r="D132" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>527</v>
       </c>
@@ -5644,8 +5737,11 @@
       <c r="D133" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>531</v>
       </c>
@@ -5658,8 +5754,11 @@
       <c r="D134" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>535</v>
       </c>
@@ -5672,8 +5771,11 @@
       <c r="D135" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>539</v>
       </c>
@@ -5686,8 +5788,11 @@
       <c r="D136" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>543</v>
       </c>
@@ -5700,8 +5805,11 @@
       <c r="D137" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>547</v>
       </c>
@@ -5714,8 +5822,11 @@
       <c r="D138" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="E138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>551</v>
       </c>
@@ -5728,8 +5839,11 @@
       <c r="D139" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="E139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>555</v>
       </c>
@@ -5742,8 +5856,11 @@
       <c r="D140" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>559</v>
       </c>
@@ -5756,8 +5873,11 @@
       <c r="D141" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>563</v>
       </c>
@@ -5770,8 +5890,11 @@
       <c r="D142" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>567</v>
       </c>
@@ -5784,8 +5907,11 @@
       <c r="D143" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="E143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>571</v>
       </c>
@@ -5798,8 +5924,11 @@
       <c r="D144" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>575</v>
       </c>
@@ -5812,8 +5941,11 @@
       <c r="D145" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>579</v>
       </c>
@@ -5826,8 +5958,11 @@
       <c r="D146" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>583</v>
       </c>
@@ -5840,8 +5975,11 @@
       <c r="D147" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="E147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>587</v>
       </c>
@@ -5854,8 +5992,11 @@
       <c r="D148" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="E148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>590</v>
       </c>
@@ -5868,8 +6009,11 @@
       <c r="D149" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="365" x14ac:dyDescent="0.2">
+      <c r="E149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>594</v>
       </c>
@@ -5882,8 +6026,11 @@
       <c r="D150" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>598</v>
       </c>
@@ -5896,8 +6043,11 @@
       <c r="D151" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="E151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>602</v>
       </c>
@@ -5909,6 +6059,9 @@
       </c>
       <c r="D152" s="2" t="s">
         <v>605</v>
+      </c>
+      <c r="E152" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
